--- a/photobiology/data/fvfm_06192024.xlsx
+++ b/photobiology/data/fvfm_06192024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdon\OneDrive\Documents\github\anemone-leachate-heat\photobiology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4C902A-8306-45D3-B9B0-BEE366086B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A4E47-6321-4612-9EAE-EF89B3C467EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>A. elegantissima x B. muscatinei</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,7 +631,7 @@
     <col min="2" max="2" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +671,11 @@
       <c r="M1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -674,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45462.876689814817</v>
       </c>
@@ -714,8 +723,11 @@
       <c r="M3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45462.876689814817</v>
       </c>
@@ -755,8 +767,11 @@
       <c r="M4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45462</v>
       </c>
@@ -796,8 +811,11 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45462</v>
       </c>
@@ -837,8 +855,11 @@
       <c r="M6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45462</v>
       </c>
@@ -878,8 +899,11 @@
       <c r="M7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45462</v>
       </c>
@@ -919,8 +943,11 @@
       <c r="M8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45462</v>
       </c>
@@ -960,8 +987,11 @@
       <c r="M9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45462</v>
       </c>
@@ -1001,8 +1031,11 @@
       <c r="M10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45462</v>
       </c>
@@ -1042,8 +1075,11 @@
       <c r="M11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45462</v>
       </c>
@@ -1083,8 +1119,11 @@
       <c r="M12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45462</v>
       </c>
@@ -1124,8 +1163,11 @@
       <c r="M13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45462</v>
       </c>
@@ -1165,8 +1207,11 @@
       <c r="M14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45462</v>
       </c>
@@ -1206,8 +1251,11 @@
       <c r="M15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45462</v>
       </c>
@@ -1247,8 +1295,11 @@
       <c r="M16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45462</v>
       </c>
@@ -1288,8 +1339,11 @@
       <c r="M17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45462</v>
       </c>
@@ -1329,8 +1383,11 @@
       <c r="M18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45462</v>
       </c>
@@ -1370,8 +1427,11 @@
       <c r="M19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45462</v>
       </c>
@@ -1411,8 +1471,11 @@
       <c r="M20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45462</v>
       </c>
@@ -1452,8 +1515,11 @@
       <c r="M21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>45462</v>
       </c>
@@ -1493,8 +1559,11 @@
       <c r="M22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>45462</v>
       </c>
@@ -1534,8 +1603,11 @@
       <c r="M23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>45462</v>
       </c>
@@ -1575,8 +1647,11 @@
       <c r="M24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>45462</v>
       </c>
@@ -1616,8 +1691,11 @@
       <c r="M25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>45462</v>
       </c>
@@ -1657,8 +1735,11 @@
       <c r="M26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>45462</v>
       </c>
@@ -1698,8 +1779,11 @@
       <c r="M27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>45462</v>
       </c>
@@ -1739,8 +1823,11 @@
       <c r="M28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>45462</v>
       </c>
@@ -1780,8 +1867,11 @@
       <c r="M29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>45462</v>
       </c>
@@ -1821,8 +1911,11 @@
       <c r="M30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>45462</v>
       </c>
@@ -1862,8 +1955,11 @@
       <c r="M31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>45462</v>
       </c>
@@ -1903,8 +1999,11 @@
       <c r="M32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>45462</v>
       </c>
@@ -1944,8 +2043,11 @@
       <c r="M33" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>45462</v>
       </c>
@@ -1985,8 +2087,11 @@
       <c r="M34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>45462</v>
       </c>
@@ -2026,8 +2131,11 @@
       <c r="M35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>45462</v>
       </c>
@@ -2067,8 +2175,11 @@
       <c r="M36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>45462</v>
       </c>
@@ -2108,8 +2219,11 @@
       <c r="M37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>45462</v>
       </c>
@@ -2149,8 +2263,11 @@
       <c r="M38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>45462</v>
       </c>
@@ -2190,8 +2307,11 @@
       <c r="M39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>45462</v>
       </c>
@@ -2231,8 +2351,11 @@
       <c r="M40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>45462</v>
       </c>
@@ -2272,8 +2395,11 @@
       <c r="M41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>45462</v>
       </c>
@@ -2313,8 +2439,11 @@
       <c r="M42" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>45462</v>
       </c>
@@ -2354,8 +2483,11 @@
       <c r="M43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>45462</v>
       </c>
@@ -2395,8 +2527,11 @@
       <c r="M44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45462</v>
       </c>
@@ -2436,8 +2571,11 @@
       <c r="M45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45462</v>
       </c>
@@ -2477,8 +2615,11 @@
       <c r="M46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45462</v>
       </c>
@@ -2518,8 +2659,11 @@
       <c r="M47" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45462</v>
       </c>
@@ -2559,8 +2703,11 @@
       <c r="M48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>45462</v>
       </c>
@@ -2600,8 +2747,11 @@
       <c r="M49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>45462</v>
       </c>
@@ -2641,8 +2791,11 @@
       <c r="M50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>45462</v>
       </c>
@@ -2682,8 +2835,11 @@
       <c r="M51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45462</v>
       </c>
@@ -2723,8 +2879,11 @@
       <c r="M52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>45462</v>
       </c>
@@ -2764,8 +2923,11 @@
       <c r="M53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>45462</v>
       </c>
@@ -2805,8 +2967,11 @@
       <c r="M54" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>45462</v>
       </c>
@@ -2846,8 +3011,11 @@
       <c r="M55" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>45462</v>
       </c>
@@ -2887,8 +3055,11 @@
       <c r="M56" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>45462</v>
       </c>
@@ -2928,8 +3099,11 @@
       <c r="M57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>45462</v>
       </c>
@@ -2969,8 +3143,11 @@
       <c r="M58" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>45462</v>
       </c>
@@ -3010,8 +3187,11 @@
       <c r="M59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>45462</v>
       </c>
@@ -3051,8 +3231,11 @@
       <c r="M60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>45462</v>
       </c>
@@ -3092,8 +3275,11 @@
       <c r="M61" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>45462</v>
       </c>
@@ -3132,6 +3318,9 @@
       </c>
       <c r="M62" t="s">
         <v>79</v>
+      </c>
+      <c r="N62" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
